--- a/助動詞.xlsx
+++ b/助動詞.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/ADD949F8-5FB5-4E52-8317-DD49F67DCF99/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A57CD7-5FE6-5644-AA95-EEB75A92A31A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>る</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>比況・例示</t>
+  </si>
+  <si>
+    <t>意味</t>
   </si>
 </sst>
 </file>
@@ -531,11 +534,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB6DF73-7C48-DB40-93EF-449F12A7F8F3}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -543,16 +544,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -560,15 +558,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -576,7 +574,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -584,23 +582,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -608,55 +606,55 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -664,105 +662,113 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>48</v>
       </c>
     </row>

--- a/助動詞.xlsx
+++ b/助動詞.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/ADD949F8-5FB5-4E52-8317-DD49F67DCF99/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A57CD7-5FE6-5644-AA95-EEB75A92A31A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E260DEF-5217-124F-87A3-5A2BFC9D29C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>る</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>意味</t>
+  </si>
+  <si>
+    <t>単語名</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB6DF73-7C48-DB40-93EF-449F12A7F8F3}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -544,6 +549,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
       <c r="B1" t="s">
         <v>49</v>
       </c>

--- a/助動詞.xlsx
+++ b/助動詞.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/ADD949F8-5FB5-4E52-8317-DD49F67DCF99/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E260DEF-5217-124F-87A3-5A2BFC9D29C8}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B794DB-1EAE-204E-B6E3-713DEDE9A229}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>る</t>
   </si>
@@ -59,9 +59,6 @@
     <t>ず</t>
   </si>
   <si>
-    <t>打ち消し</t>
-  </si>
-  <si>
     <t>む</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>まじ</t>
   </si>
   <si>
-    <t>推量・意志・可能・当然・命令・適当</t>
-  </si>
-  <si>
     <t>伝聞・推定</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>単語名</t>
+  </si>
+  <si>
+    <t>推量・意志・可能・当然・命令・適当・勧誘・義務</t>
+  </si>
+  <si>
+    <t>打消</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB6DF73-7C48-DB40-93EF-449F12A7F8F3}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -601,183 +601,183 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/助動詞.xlsx
+++ b/助動詞.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/ADD949F8-5FB5-4E52-8317-DD49F67DCF99/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B794DB-1EAE-204E-B6E3-713DEDE9A229}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56623AE3-4CF1-A746-B89E-9E8AD8E5A506}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>る</t>
   </si>
@@ -41,9 +41,6 @@
     <t>らる</t>
   </si>
   <si>
-    <t>自発・可能・受け身・尊敬</t>
-  </si>
-  <si>
     <t>す</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>ぬ</t>
   </si>
   <si>
-    <t>たり</t>
-  </si>
-  <si>
     <t>完了・並列・強意</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>打消</t>
+  </si>
+  <si>
+    <t>自発・可能・受身・尊敬</t>
+  </si>
+  <si>
+    <t>たり(完了)</t>
   </si>
 </sst>
 </file>
@@ -539,21 +539,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB6DF73-7C48-DB40-93EF-449F12A7F8F3}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.47265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -561,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -569,215 +570,215 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/助動詞.xlsx
+++ b/助動詞.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/ADD949F8-5FB5-4E52-8317-DD49F67DCF99/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56623AE3-4CF1-A746-B89E-9E8AD8E5A506}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{9AF6E185-8941-EF4E-A30F-2FBC859FE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE3A39C-F994-7946-BC04-CB470AE3F7E6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>る</t>
   </si>
@@ -185,7 +185,7 @@
     <t>自発・可能・受身・尊敬</t>
   </si>
   <si>
-    <t>たり(完了)</t>
+    <t>たり(連体)</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB6DF73-7C48-DB40-93EF-449F12A7F8F3}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
